--- a/result/reply18.xlsx
+++ b/result/reply18.xlsx
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" t="n">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="CL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM29" t="n">
         <v>0</v>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="BH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI37" t="n">
         <v>0</v>
@@ -17239,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="BE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42" t="n">
         <v>0</v>
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="BE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF43" t="n">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -19915,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ44" t="n">
         <v>0</v>
@@ -19936,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -20038,10 +20038,10 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG44" t="n">
         <v>0</v>
@@ -20086,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="CU44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV44" t="n">
         <v>0</v>
@@ -21268,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW47" t="n">
         <v>0</v>
@@ -22263,10 +22263,10 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG49" t="n">
         <v>0</v>
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="CQ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR49" t="n">
         <v>0</v>
@@ -22311,7 +22311,7 @@
         <v>0</v>
       </c>
       <c r="CU49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV49" t="n">
         <v>0</v>
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="BL50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM50" t="n">
         <v>0</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="BU51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BV51" t="n">
         <v>0</v>
@@ -23141,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="CA51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB51" t="n">
         <v>0</v>
@@ -23634,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="CQ52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR52" t="n">
         <v>0</v>
@@ -24434,7 +24434,7 @@
         <v>0</v>
       </c>
       <c r="BM54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN54" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="CJ54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK54" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="BD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE55" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="BP55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ55" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="BV55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW55" t="n">
         <v>0</v>
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="CC55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD55" t="n">
         <v>0</v>
@@ -24966,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="CP55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ55" t="n">
         <v>0</v>
@@ -26620,7 +26620,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA59" t="n">
         <v>0</v>
@@ -27077,7 +27077,7 @@
         <v>0</v>
       </c>
       <c r="BD60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE60" t="n">
         <v>0</v>
@@ -27116,10 +27116,10 @@
         <v>0</v>
       </c>
       <c r="BQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS60" t="n">
         <v>0</v>
@@ -27164,7 +27164,7 @@
         <v>0</v>
       </c>
       <c r="CG60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH60" t="n">
         <v>0</v>
@@ -27525,7 +27525,7 @@
         <v>0</v>
       </c>
       <c r="BE61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF61" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="BK61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL61" t="n">
         <v>0</v>
@@ -28947,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="CH64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI64" t="n">
         <v>0</v>
@@ -29392,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="CH65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI65" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="CQ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR68" t="n">
         <v>0</v>
@@ -31503,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="AV70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW70" t="n">
         <v>0</v>
@@ -31572,7 +31572,7 @@
         <v>0</v>
       </c>
       <c r="BS70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT70" t="n">
         <v>0</v>
@@ -31614,10 +31614,10 @@
         <v>0</v>
       </c>
       <c r="CG70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI70" t="n">
         <v>0</v>
@@ -31659,7 +31659,7 @@
         <v>0</v>
       </c>
       <c r="CV70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW70" t="n">
         <v>0</v>
@@ -31918,7 +31918,7 @@
         <v>0</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" t="n">
         <v>0</v>
@@ -31975,7 +31975,7 @@
         <v>0</v>
       </c>
       <c r="BE71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF71" t="n">
         <v>0</v>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="BR71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS71" t="n">
         <v>0</v>
@@ -32396,13 +32396,13 @@
         <v>0</v>
       </c>
       <c r="AW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX72" t="n">
         <v>0</v>
       </c>
       <c r="AY72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ72" t="n">
         <v>0</v>
@@ -32417,7 +32417,7 @@
         <v>0</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE72" t="n">
         <v>0</v>
@@ -32471,7 +32471,7 @@
         <v>0</v>
       </c>
       <c r="BV72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW72" t="n">
         <v>0</v>
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="BY72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ72" t="n">
         <v>0</v>
@@ -32501,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="CF72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG72" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>0</v>
       </c>
       <c r="CU72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV72" t="n">
         <v>0</v>
@@ -33836,7 +33836,7 @@
         <v>0</v>
       </c>
       <c r="CF75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG75" t="n">
         <v>0</v>
@@ -34176,7 +34176,7 @@
         <v>0</v>
       </c>
       <c r="AW76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX76" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="BS79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT79" t="n">
         <v>0</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="BC81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD81" t="n">
         <v>0</v>
@@ -36530,13 +36530,13 @@
         <v>0</v>
       </c>
       <c r="CN81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CO81" t="n">
         <v>0</v>
       </c>
       <c r="CP81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ81" t="n">
         <v>0</v>
@@ -36867,10 +36867,10 @@
         <v>0</v>
       </c>
       <c r="BD82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF82" t="n">
         <v>0</v>
@@ -36900,10 +36900,10 @@
         <v>0</v>
       </c>
       <c r="BO82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ82" t="n">
         <v>0</v>
@@ -37270,13 +37270,13 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ83" t="n">
         <v>0</v>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS83" t="n">
         <v>0</v>
@@ -37288,10 +37288,10 @@
         <v>0</v>
       </c>
       <c r="AV83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW83" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX83" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="CF83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG83" t="n">
         <v>0</v>
@@ -37429,7 +37429,7 @@
         <v>0</v>
       </c>
       <c r="CQ83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR83" t="n">
         <v>0</v>
@@ -37441,7 +37441,7 @@
         <v>0</v>
       </c>
       <c r="CU83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV83" t="n">
         <v>0</v>
@@ -37715,13 +37715,13 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ84" t="n">
         <v>0</v>
       </c>
       <c r="AR84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS84" t="n">
         <v>0</v>
@@ -37736,7 +37736,7 @@
         <v>0</v>
       </c>
       <c r="AW84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX84" t="n">
         <v>0</v>
@@ -37838,7 +37838,7 @@
         <v>0</v>
       </c>
       <c r="CE84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CF84" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="CQ84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR84" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="CU84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV84" t="n">
         <v>0</v>
@@ -38671,7 +38671,7 @@
         <v>0</v>
       </c>
       <c r="BL86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM86" t="n">
         <v>0</v>
@@ -39531,7 +39531,7 @@
         <v>0</v>
       </c>
       <c r="BB88" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BC88" t="n">
         <v>0</v>
@@ -41392,7 +41392,7 @@
         <v>0</v>
       </c>
       <c r="CC92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD92" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="BC94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD94" t="n">
         <v>0</v>
@@ -42282,7 +42282,7 @@
         <v>0</v>
       </c>
       <c r="CC94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD94" t="n">
         <v>0</v>
@@ -42631,7 +42631,7 @@
         <v>0</v>
       </c>
       <c r="AW95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
@@ -42691,7 +42691,7 @@
         <v>0</v>
       </c>
       <c r="BQ95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR95" t="n">
         <v>0</v>
@@ -42733,10 +42733,10 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG95" t="n">
         <v>0</v>
@@ -44853,7 +44853,7 @@
         <v>0</v>
       </c>
       <c r="AV100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW100" t="n">
         <v>0</v>
@@ -44922,7 +44922,7 @@
         <v>0</v>
       </c>
       <c r="BS100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT100" t="n">
         <v>0</v>
@@ -46702,7 +46702,7 @@
         <v>0</v>
       </c>
       <c r="BS104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT104" t="n">
         <v>0</v>
@@ -46711,7 +46711,7 @@
         <v>0</v>
       </c>
       <c r="BV104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW104" t="n">
         <v>0</v>
@@ -47144,7 +47144,7 @@
         <v>0</v>
       </c>
       <c r="BR105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS105" t="n">
         <v>0</v>
@@ -47189,7 +47189,7 @@
         <v>0</v>
       </c>
       <c r="CG105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH105" t="n">
         <v>0</v>
@@ -47511,7 +47511,7 @@
         <v>0</v>
       </c>
       <c r="AR106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS106" t="n">
         <v>0</v>
@@ -47526,7 +47526,7 @@
         <v>0</v>
       </c>
       <c r="AW106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX106" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF106" t="n">
         <v>0</v>
@@ -47676,7 +47676,7 @@
         <v>0</v>
       </c>
       <c r="CU106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV106" t="n">
         <v>0</v>
@@ -49441,7 +49441,7 @@
         <v>0</v>
       </c>
       <c r="CP110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ110" t="n">
         <v>0</v>
@@ -50295,7 +50295,7 @@
         <v>0</v>
       </c>
       <c r="CD112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE112" t="n">
         <v>0</v>
@@ -50659,7 +50659,7 @@
         <v>0</v>
       </c>
       <c r="BC113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD113" t="n">
         <v>0</v>
@@ -51531,7 +51531,7 @@
         <v>0</v>
       </c>
       <c r="AW115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX115" t="n">
         <v>0</v>
@@ -51997,10 +51997,10 @@
         <v>0</v>
       </c>
       <c r="BD116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF116" t="n">
         <v>0</v>
@@ -52096,7 +52096,7 @@
         <v>0</v>
       </c>
       <c r="CK116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL116" t="n">
         <v>0</v>
@@ -52571,7 +52571,7 @@
         <v>0</v>
       </c>
       <c r="CU117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV117" t="n">
         <v>0</v>
@@ -53374,10 +53374,10 @@
         <v>0</v>
       </c>
       <c r="BR119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT119" t="n">
         <v>0</v>
@@ -54201,7 +54201,7 @@
         <v>0</v>
       </c>
       <c r="AW121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX121" t="n">
         <v>0</v>
@@ -54216,7 +54216,7 @@
         <v>0</v>
       </c>
       <c r="BB121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC121" t="n">
         <v>0</v>
@@ -54249,7 +54249,7 @@
         <v>0</v>
       </c>
       <c r="BM121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN121" t="n">
         <v>0</v>
@@ -54264,7 +54264,7 @@
         <v>0</v>
       </c>
       <c r="BR121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS121" t="n">
         <v>0</v>
@@ -54276,7 +54276,7 @@
         <v>0</v>
       </c>
       <c r="BV121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW121" t="n">
         <v>0</v>
@@ -54306,7 +54306,7 @@
         <v>0</v>
       </c>
       <c r="CF121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG121" t="n">
         <v>0</v>
@@ -54318,7 +54318,7 @@
         <v>0</v>
       </c>
       <c r="CJ121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK121" t="n">
         <v>0</v>
@@ -54351,7 +54351,7 @@
         <v>0</v>
       </c>
       <c r="CU121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV121" t="n">
         <v>0</v>
@@ -54646,7 +54646,7 @@
         <v>0</v>
       </c>
       <c r="AW122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX122" t="n">
         <v>0</v>
@@ -54796,7 +54796,7 @@
         <v>0</v>
       </c>
       <c r="CU122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV122" t="n">
         <v>0</v>
@@ -57334,7 +57334,7 @@
         <v>0</v>
       </c>
       <c r="BC128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD128" t="n">
         <v>0</v>
@@ -57728,7 +57728,7 @@
         <v>0</v>
       </c>
       <c r="AL129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM129" t="n">
         <v>0</v>
@@ -57827,7 +57827,7 @@
         <v>0</v>
       </c>
       <c r="BS129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT129" t="n">
         <v>0</v>
@@ -57908,7 +57908,7 @@
         <v>0</v>
       </c>
       <c r="CT129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU129" t="n">
         <v>0</v>
@@ -58215,7 +58215,7 @@
         <v>0</v>
       </c>
       <c r="AZ130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA130" t="n">
         <v>0</v>
@@ -58224,7 +58224,7 @@
         <v>0</v>
       </c>
       <c r="BC130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD130" t="n">
         <v>0</v>
@@ -58747,7 +58747,7 @@
         <v>0</v>
       </c>
       <c r="CC131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD131" t="n">
         <v>0</v>
@@ -58786,7 +58786,7 @@
         <v>0</v>
       </c>
       <c r="CP131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ131" t="n">
         <v>0</v>
@@ -60019,7 +60019,7 @@
         <v>0</v>
       </c>
       <c r="BH134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI134" t="n">
         <v>0</v>
@@ -60924,7 +60924,7 @@
         <v>0</v>
       </c>
       <c r="BM136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN136" t="n">
         <v>0</v>
@@ -61369,7 +61369,7 @@
         <v>0</v>
       </c>
       <c r="BM137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN137" t="n">
         <v>0</v>
@@ -63125,7 +63125,7 @@
         <v>0</v>
       </c>
       <c r="BE141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF141" t="n">
         <v>0</v>
@@ -63191,7 +63191,7 @@
         <v>0</v>
       </c>
       <c r="CA141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB141" t="n">
         <v>0</v>
@@ -63254,7 +63254,7 @@
         <v>0</v>
       </c>
       <c r="CV141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW141" t="n">
         <v>0</v>
@@ -65344,7 +65344,7 @@
         <v>0</v>
       </c>
       <c r="BC146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD146" t="n">
         <v>0</v>
@@ -65837,7 +65837,7 @@
         <v>0</v>
       </c>
       <c r="BS147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT147" t="n">
         <v>0</v>
